--- a/testData/database_resource_test_data.xlsx
+++ b/testData/database_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_database_resource" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="232">
   <si>
     <t>测试点说明</t>
   </si>
@@ -712,10 +712,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Debian</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1155,6 +1151,302 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>92.168.23.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>orcl_10.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>192.168.23.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10gResource</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>racle10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle9i</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle9i</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除oracle9i资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle11g</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Oracle11g资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2000资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2005资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2008资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>db2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除db2资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除bs资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yingyong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>92.168.23.7</t>
     </r>
     <r>
@@ -1168,305 +1460,10 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>orcl_10.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>192.168.23.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92.168.23.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle10gResource</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>删除o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>racle10g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>资源</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlserver2000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle9i</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle9i</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除oracle9i资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle11g</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除Oracle11g资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除sqlserver2000资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlserver2005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除sqlserver2005资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlserver2008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除sqlserver2008资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>db2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除db2资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除bs资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>yingyong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2049,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2080,10 +2077,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -2131,13 +2128,13 @@
         <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>11</v>
@@ -2158,7 +2155,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -2174,7 +2171,7 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
@@ -2187,7 +2184,7 @@
         <v>22</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25">
@@ -2201,17 +2198,17 @@
         <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2223,7 +2220,7 @@
         <v>74</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="11" t="s">
@@ -2236,7 +2233,7 @@
         <v>84</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
@@ -2254,13 +2251,13 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2269,10 +2266,10 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="11" t="s">
@@ -2285,7 +2282,7 @@
         <v>84</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25">
@@ -2303,13 +2300,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2321,7 +2318,7 @@
         <v>75</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="11" t="s">
@@ -2334,7 +2331,7 @@
         <v>84</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25">
@@ -2352,7 +2349,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>60</v>
@@ -2368,7 +2365,7 @@
         <v>76</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="11" t="s">
@@ -2381,7 +2378,7 @@
         <v>86</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25">
@@ -2399,7 +2396,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>60</v>
@@ -2415,7 +2412,7 @@
         <v>77</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="11" t="s">
@@ -2428,7 +2425,7 @@
         <v>86</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25">
@@ -2446,7 +2443,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>60</v>
@@ -2462,7 +2459,7 @@
         <v>78</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="11" t="s">
@@ -2475,7 +2472,7 @@
         <v>86</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25">
@@ -2493,7 +2490,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -2509,16 +2506,16 @@
         <v>83</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25">
@@ -2536,7 +2533,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2558,7 +2555,7 @@
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2591,13 +2588,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2619,13 +2616,13 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -2633,13 +2630,13 @@
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -2647,13 +2644,13 @@
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -2661,13 +2658,13 @@
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>13</v>
@@ -2675,13 +2672,13 @@
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>13</v>
@@ -2689,13 +2686,13 @@
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -2703,13 +2700,13 @@
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
@@ -2717,13 +2714,13 @@
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>13</v>
@@ -2753,13 +2750,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2806,10 +2803,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -2818,10 +2815,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>2</v>
@@ -2829,17 +2826,17 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2854,7 +2851,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2866,14 +2863,14 @@
         <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -2885,10 +2882,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2900,10 +2897,10 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2915,10 +2912,10 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2930,10 +2927,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -2945,16 +2942,16 @@
         <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3036,13 +3033,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>25</v>
@@ -3087,10 +3084,10 @@
         <v>40</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>11</v>
@@ -3111,7 +3108,7 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -3125,7 +3122,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="T2" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
@@ -3139,11 +3136,11 @@
         <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3159,7 +3156,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="24"/>
       <c r="T3" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3173,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3190,10 +3187,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>96</v>
@@ -3245,10 +3242,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -3265,16 +3262,16 @@
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>121</v>
@@ -3290,16 +3287,16 @@
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>198</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>121</v>
@@ -3315,16 +3312,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>121</v>
@@ -3415,16 +3412,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>87</v>
@@ -3433,7 +3430,7 @@
         <v>122</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -3442,19 +3439,19 @@
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>122</v>
@@ -3509,28 +3506,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3538,13 +3535,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -3553,16 +3550,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3594,28 +3591,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3623,22 +3620,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -3647,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3678,28 +3675,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3707,31 +3704,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3761,28 +3758,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -3814,7 +3811,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -3890,16 +3887,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -3919,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3946,13 +3943,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3969,7 +3966,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/testData/database_resource_test_data.xlsx
+++ b/testData/database_resource_test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="231">
   <si>
     <t>测试点说明</t>
   </si>
@@ -455,10 +455,6 @@
   </si>
   <si>
     <t>【库名】不能为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_server2003</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2046,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2077,10 +2073,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -2128,13 +2124,13 @@
         <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>11</v>
@@ -2155,7 +2151,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -2168,10 +2164,10 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
@@ -2184,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25">
@@ -2198,17 +2194,17 @@
         <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2220,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="11" t="s">
@@ -2233,7 +2229,7 @@
         <v>84</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
@@ -2247,17 +2243,17 @@
         <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2266,10 +2262,10 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="11" t="s">
@@ -2282,7 +2278,7 @@
         <v>84</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25">
@@ -2300,13 +2296,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2318,7 +2314,7 @@
         <v>75</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="11" t="s">
@@ -2331,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25">
@@ -2349,7 +2345,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>60</v>
@@ -2365,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="11" t="s">
@@ -2378,7 +2374,7 @@
         <v>86</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25">
@@ -2396,7 +2392,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>60</v>
@@ -2412,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="11" t="s">
@@ -2425,7 +2421,7 @@
         <v>86</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25">
@@ -2443,7 +2439,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>60</v>
@@ -2459,7 +2455,7 @@
         <v>78</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="11" t="s">
@@ -2472,7 +2468,7 @@
         <v>86</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25">
@@ -2490,7 +2486,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -2506,56 +2502,56 @@
         <v>83</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="M10" s="8">
         <v>1</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2588,13 +2584,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2616,13 +2612,13 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -2630,13 +2626,13 @@
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -2644,13 +2640,13 @@
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -2658,13 +2654,13 @@
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>13</v>
@@ -2672,13 +2668,13 @@
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>13</v>
@@ -2686,13 +2682,13 @@
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -2700,13 +2696,13 @@
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
@@ -2714,13 +2710,13 @@
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>13</v>
@@ -2750,13 +2746,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2764,13 +2760,13 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>13</v>
@@ -2803,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -2815,10 +2811,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>2</v>
@@ -2826,17 +2822,17 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2851,7 +2847,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2863,14 +2859,14 @@
         <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -2882,10 +2878,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2897,10 +2893,10 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2912,10 +2908,10 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2927,10 +2923,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -2942,16 +2938,16 @@
         <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3033,13 +3029,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>25</v>
@@ -3084,10 +3080,10 @@
         <v>40</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>11</v>
@@ -3101,14 +3097,14 @@
         <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -3122,12 +3118,12 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="T2" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>52</v>
@@ -3136,11 +3132,11 @@
         <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3156,7 +3152,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="24"/>
       <c r="T3" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3167,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3187,28 +3183,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -3216,20 +3212,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -3239,20 +3235,20 @@
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3262,22 +3258,22 @@
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -3287,22 +3283,22 @@
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>197</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -3312,22 +3308,22 @@
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -3337,13 +3333,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -3352,7 +3348,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -3368,7 +3364,7 @@
         <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -3388,10 +3384,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>90</v>
@@ -3400,11 +3396,11 @@
         <v>87</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>93</v>
+      <c r="H9" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>7</v>
@@ -3412,25 +3408,25 @@
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -3439,22 +3435,22 @@
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3506,28 +3502,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3535,13 +3531,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -3550,16 +3546,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3591,28 +3587,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3620,22 +3616,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -3644,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3675,28 +3671,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3704,31 +3700,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3758,28 +3754,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3787,7 +3783,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -3811,7 +3807,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -3887,16 +3883,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -3916,7 +3912,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3943,13 +3939,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3966,7 +3962,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/testData/database_resource_test_data.xlsx
+++ b/testData/database_resource_test_data.xlsx
@@ -732,10 +732,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.257</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1460,6 +1456,10 @@
   </si>
   <si>
     <t>【地址】不能为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2073,10 +2073,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -2124,13 +2124,13 @@
         <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>11</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
@@ -2167,7 +2167,7 @@
         <v>114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
@@ -2180,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25">
@@ -2194,17 +2194,17 @@
         <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2216,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="11" t="s">
@@ -2229,7 +2229,7 @@
         <v>84</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
@@ -2247,13 +2247,13 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2262,10 +2262,10 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="11" t="s">
@@ -2278,7 +2278,7 @@
         <v>84</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25">
@@ -2296,13 +2296,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2314,7 +2314,7 @@
         <v>75</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="11" t="s">
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>60</v>
@@ -2361,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="11" t="s">
@@ -2374,7 +2374,7 @@
         <v>86</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>60</v>
@@ -2408,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="11" t="s">
@@ -2421,7 +2421,7 @@
         <v>86</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>60</v>
@@ -2455,7 +2455,7 @@
         <v>78</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="11" t="s">
@@ -2468,7 +2468,7 @@
         <v>86</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -2502,16 +2502,16 @@
         <v>83</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2584,13 +2584,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>13</v>
@@ -2668,13 +2668,13 @@
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>13</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>13</v>
@@ -2746,13 +2746,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2799,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -2811,10 +2811,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>2</v>
@@ -2822,17 +2822,17 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2847,7 +2847,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2859,14 +2859,14 @@
         <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -2878,10 +2878,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2893,10 +2893,10 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2908,10 +2908,10 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2923,10 +2923,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -2938,16 +2938,16 @@
         <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3029,13 +3029,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>25</v>
@@ -3080,10 +3080,10 @@
         <v>40</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>11</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -3118,7 +3118,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="T2" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
@@ -3132,11 +3132,11 @@
         <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3152,7 +3152,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="24"/>
       <c r="T3" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3167,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3183,10 +3183,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>95</v>
@@ -3238,7 +3238,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>124</v>
@@ -3286,10 +3286,10 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>127</v>
@@ -3311,13 +3311,13 @@
         <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>120</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>7</v>
@@ -3408,16 +3408,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>87</v>
@@ -3426,7 +3426,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -3435,19 +3435,19 @@
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>121</v>
@@ -3502,28 +3502,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3531,13 +3531,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -3546,16 +3546,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3587,28 +3587,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3616,22 +3616,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3671,28 +3671,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3700,31 +3700,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3754,28 +3754,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -3807,7 +3807,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -3883,16 +3883,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3939,13 +3939,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
